--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ncam1</t>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H2">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I2">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J2">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,122 +555,122 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.785814</v>
+        <v>1.8608265</v>
       </c>
       <c r="N2">
-        <v>9.571628</v>
+        <v>3.721653</v>
       </c>
       <c r="O2">
-        <v>0.6750138823283496</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5806605701408145</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.20118312646</v>
+        <v>2.20118190139575</v>
       </c>
       <c r="R2">
-        <v>12.80473250584</v>
+        <v>8.804727605582999</v>
       </c>
       <c r="S2">
-        <v>0.007965231173005106</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="T2">
-        <v>0.006682195544811084</v>
+        <v>0.04164321481729736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.349703666666667</v>
+      </c>
+      <c r="H3">
+        <v>7.049111</v>
+      </c>
+      <c r="I3">
+        <v>0.08640699984476037</v>
+      </c>
+      <c r="J3">
+        <v>0.1240790763268806</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.66889</v>
-      </c>
-      <c r="H3">
-        <v>1.33778</v>
-      </c>
-      <c r="I3">
-        <v>0.01180009979280774</v>
-      </c>
-      <c r="J3">
-        <v>0.01150792026947964</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.304135</v>
+        <v>1.8608265</v>
       </c>
       <c r="N3">
-        <v>6.912405</v>
+        <v>3.721653</v>
       </c>
       <c r="O3">
-        <v>0.3249861176716504</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4193394298591855</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.54121286015</v>
+        <v>4.3723908500805</v>
       </c>
       <c r="R3">
-        <v>9.2472771609</v>
+        <v>26.234345100483</v>
       </c>
       <c r="S3">
-        <v>0.003834868619802634</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="T3">
-        <v>0.004825724724668558</v>
+        <v>0.1240790763268806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.349703666666667</v>
+        <v>23.585978</v>
       </c>
       <c r="H4">
-        <v>7.049111</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I4">
-        <v>0.04145186465665943</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J4">
-        <v>0.0606382270318826</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,586 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.785814</v>
+        <v>1.8608265</v>
       </c>
       <c r="N4">
-        <v>9.571628</v>
+        <v>3.721653</v>
       </c>
       <c r="O4">
-        <v>0.6750138823283496</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5806605701408145</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>11.24524470378467</v>
+        <v>43.88941289081699</v>
       </c>
       <c r="R4">
-        <v>67.471468222708</v>
+        <v>175.557651563268</v>
       </c>
       <c r="S4">
-        <v>0.02798058409164098</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="T4">
-        <v>0.0352102274806611</v>
+        <v>0.8303249486371054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.349703666666667</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H5">
-        <v>7.049111</v>
+        <v>0.224562</v>
       </c>
       <c r="I5">
-        <v>0.04145186465665943</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J5">
-        <v>0.0606382270318826</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.304135</v>
+        <v>1.8608265</v>
       </c>
       <c r="N5">
-        <v>6.912405</v>
+        <v>3.721653</v>
       </c>
       <c r="O5">
-        <v>0.3249861176716504</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4193394298591855</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.414034457995</v>
+        <v>0.139290306831</v>
       </c>
       <c r="R5">
-        <v>48.726310121955</v>
+        <v>0.8357418409859999</v>
       </c>
       <c r="S5">
-        <v>0.01347128056501845</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="T5">
-        <v>0.0254279995512215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.02107333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.06322</v>
-      </c>
-      <c r="I6">
-        <v>0.0003717613304137229</v>
-      </c>
-      <c r="J6">
-        <v>0.0005438343520134124</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.785814</v>
-      </c>
-      <c r="N6">
-        <v>9.571628</v>
-      </c>
-      <c r="O6">
-        <v>0.6750138823283496</v>
-      </c>
-      <c r="P6">
-        <v>0.5806605701408145</v>
-      </c>
-      <c r="Q6">
-        <v>0.1008530536933333</v>
-      </c>
-      <c r="R6">
-        <v>0.6051183221600001</v>
-      </c>
-      <c r="S6">
-        <v>0.0002509440589421195</v>
-      </c>
-      <c r="T6">
-        <v>0.0003157831649022685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.02107333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.06322</v>
-      </c>
-      <c r="I7">
-        <v>0.0003717613304137229</v>
-      </c>
-      <c r="J7">
-        <v>0.0005438343520134124</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.304135</v>
-      </c>
-      <c r="N7">
-        <v>6.912405</v>
-      </c>
-      <c r="O7">
-        <v>0.3249861176716504</v>
-      </c>
-      <c r="P7">
-        <v>0.4193394298591855</v>
-      </c>
-      <c r="Q7">
-        <v>0.0485558049</v>
-      </c>
-      <c r="R7">
-        <v>0.4370022441</v>
-      </c>
-      <c r="S7">
-        <v>0.0001208172714716034</v>
-      </c>
-      <c r="T7">
-        <v>0.000228051187111144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>53.1378185</v>
-      </c>
-      <c r="H8">
-        <v>106.275637</v>
-      </c>
-      <c r="I8">
-        <v>0.9374210424316486</v>
-      </c>
-      <c r="J8">
-        <v>0.9142097782775647</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.785814</v>
-      </c>
-      <c r="N8">
-        <v>9.571628</v>
-      </c>
-      <c r="O8">
-        <v>0.6750138823283496</v>
-      </c>
-      <c r="P8">
-        <v>0.5806605701408145</v>
-      </c>
-      <c r="Q8">
-        <v>254.307715706759</v>
-      </c>
-      <c r="R8">
-        <v>1017.230862827036</v>
-      </c>
-      <c r="S8">
-        <v>0.6327722172280756</v>
-      </c>
-      <c r="T8">
-        <v>0.5308455710829583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>53.1378185</v>
-      </c>
-      <c r="H9">
-        <v>106.275637</v>
-      </c>
-      <c r="I9">
-        <v>0.9374210424316486</v>
-      </c>
-      <c r="J9">
-        <v>0.9142097782775647</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.304135</v>
-      </c>
-      <c r="N9">
-        <v>6.912405</v>
-      </c>
-      <c r="O9">
-        <v>0.3249861176716504</v>
-      </c>
-      <c r="P9">
-        <v>0.4193394298591855</v>
-      </c>
-      <c r="Q9">
-        <v>122.4367074294975</v>
-      </c>
-      <c r="R9">
-        <v>734.620244576985</v>
-      </c>
-      <c r="S9">
-        <v>0.3046488252035729</v>
-      </c>
-      <c r="T9">
-        <v>0.3833642071946064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.137562</v>
-      </c>
-      <c r="I10">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J10">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.785814</v>
-      </c>
-      <c r="N10">
-        <v>9.571628</v>
-      </c>
-      <c r="O10">
-        <v>0.6750138823283496</v>
-      </c>
-      <c r="P10">
-        <v>0.5806605701408145</v>
-      </c>
-      <c r="Q10">
-        <v>1.814720048489333</v>
-      </c>
-      <c r="R10">
-        <v>10.888320290936</v>
-      </c>
-      <c r="S10">
-        <v>0.00451541324862884</v>
-      </c>
-      <c r="T10">
-        <v>0.005682108962868622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.137562</v>
-      </c>
-      <c r="I11">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J11">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.304135</v>
-      </c>
-      <c r="N11">
-        <v>6.912405</v>
-      </c>
-      <c r="O11">
-        <v>0.3249861176716504</v>
-      </c>
-      <c r="P11">
-        <v>0.4193394298591855</v>
-      </c>
-      <c r="Q11">
-        <v>0.87369880629</v>
-      </c>
-      <c r="R11">
-        <v>7.863289256609999</v>
-      </c>
-      <c r="S11">
-        <v>0.002173950284242014</v>
-      </c>
-      <c r="T11">
-        <v>0.004103485677199101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.128441</v>
-      </c>
-      <c r="H12">
-        <v>0.385323</v>
-      </c>
-      <c r="I12">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J12">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.785814</v>
-      </c>
-      <c r="N12">
-        <v>9.571628</v>
-      </c>
-      <c r="O12">
-        <v>0.6750138823283496</v>
-      </c>
-      <c r="P12">
-        <v>0.5806605701408145</v>
-      </c>
-      <c r="Q12">
-        <v>0.614694735974</v>
-      </c>
-      <c r="R12">
-        <v>3.688168415844</v>
-      </c>
-      <c r="S12">
-        <v>0.001529492528056854</v>
-      </c>
-      <c r="T12">
-        <v>0.001924683904613046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.128441</v>
-      </c>
-      <c r="H13">
-        <v>0.385323</v>
-      </c>
-      <c r="I13">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J13">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.304135</v>
-      </c>
-      <c r="N13">
-        <v>6.912405</v>
-      </c>
-      <c r="O13">
-        <v>0.3249861176716504</v>
-      </c>
-      <c r="P13">
-        <v>0.4193394298591855</v>
-      </c>
-      <c r="Q13">
-        <v>0.295945403535</v>
-      </c>
-      <c r="R13">
-        <v>2.663508631815</v>
-      </c>
-      <c r="S13">
-        <v>0.0007363757275427501</v>
-      </c>
-      <c r="T13">
-        <v>0.001389961524378794</v>
+        <v>0.003952760218716512</v>
       </c>
     </row>
   </sheetData>
